--- a/biology/Botanique/Thé_Huangshan_Maofeng/Thé_Huangshan_Maofeng.xlsx
+++ b/biology/Botanique/Thé_Huangshan_Maofeng/Thé_Huangshan_Maofeng.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9_Huangshan_Maofeng</t>
+          <t>Thé_Huangshan_Maofeng</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Huángshān máofēng (黄山毛峰, hanyu pinyin : huángshān máofēng) (littéralement « cime duveteuse des montagnes jaunes ») est un thé vert de l'Anhui en Chine. Il est récolté une fois par an, au printemps.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9_Huangshan_Maofeng</t>
+          <t>Thé_Huangshan_Maofeng</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Fabrication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Huángshān máofēng est considéré comme le meilleur thé de la qualité máofēng, c'est-à-dire littéralement « cime duveteuse ». Les Chinois désignent par ce terme de « cime duveteuse » certains thés très riches en bourgeons. Les bourgeons de thé présentent, en effet, un aspect proche du duvet d'oiseau.
 La cueillette du Huángshān máofēng, dans les grades supérieurs, est particulièrement fine : elle n'est composée que du seul bourgeon et de la première feuille, qui sont roulés manuellement. Après le roulage, la feuille et le bourgeon, laissés intacts et attachés, prennent la forme d'une langue d'hirondelle.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Th%C3%A9_Huangshan_Maofeng</t>
+          <t>Thé_Huangshan_Maofeng</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Dégustation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Huángshān máofēng a une astringence plus grande que la plupart des thés chinois de qualité. Celle-ci reste néanmoins discrète et structure une infusion où dominent des saveurs végétales fraiches et minérales accompagnées de notes d'iode et de châtaigne.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Th%C3%A9_Huangshan_Maofeng</t>
+          <t>Thé_Huangshan_Maofeng</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>François-Xavier Delmas, Mathias Minet et Christine Barbaste, Le thé. Guide de dégustation de l'amateur, Éditions du Chêne, 2007.</t>
         </is>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Th%C3%A9_Huangshan_Maofeng</t>
+          <t>Thé_Huangshan_Maofeng</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Lien interne</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Thé en Chine
  Portail de la Chine   Portail des boissons   Portail de la botanique   Portail du thé                  </t>
